--- a/Synthèse-Experiences/ExperimentsMAJmardisoir.xlsx
+++ b/Synthèse-Experiences/ExperimentsMAJmardisoir.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="23260" windowHeight="13160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Resultats" sheetId="1" r:id="rId1"/>
     <sheet name="Interpretations" sheetId="2" r:id="rId2"/>
     <sheet name="Resolution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3109,7 +3109,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:AD33" dataDxfId="75">
-  <autoFilter ref="A3:AD33"/>
+  <autoFilter ref="A3:AD33">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="10μm – 1pA (6)"/>
+        <filter val="10µm – 1pA (6)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A4:AD33">
     <sortCondition ref="B3:B33"/>
   </sortState>
@@ -3505,49 +3512,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="Q6:W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.296875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="61" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="10.796875" customWidth="1"/>
-    <col min="13" max="13" width="10.796875" style="41" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="41" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="11.796875" customWidth="1"/>
-    <col min="16" max="16" width="12.796875" customWidth="1"/>
-    <col min="17" max="17" width="11.796875" customWidth="1"/>
-    <col min="18" max="18" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.796875" customWidth="1"/>
-    <col min="20" max="20" width="13.19921875" customWidth="1"/>
-    <col min="21" max="21" width="11.796875" customWidth="1"/>
-    <col min="22" max="22" width="13.19921875" customWidth="1"/>
-    <col min="23" max="23" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.296875" customWidth="1"/>
-    <col min="27" max="27" width="14.19921875" customWidth="1"/>
-    <col min="28" max="28" width="17.296875" customWidth="1"/>
-    <col min="29" max="29" width="15.19921875" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" customWidth="1"/>
+    <col min="29" max="29" width="15.1640625" customWidth="1"/>
     <col min="30" max="30" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="H1" s="26" t="s">
         <v>49</v>
       </c>
@@ -3582,7 +3590,7 @@
       </c>
       <c r="AC1" s="49"/>
     </row>
-    <row r="2" spans="1:30" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="26" customHeight="1">
       <c r="F2" s="60"/>
       <c r="K2" s="74" t="s">
         <v>34</v>
@@ -3620,7 +3628,7 @@
       <c r="AB2" s="70"/>
       <c r="AC2" s="70"/>
     </row>
-    <row r="3" spans="1:30" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="63" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>78</v>
       </c>
@@ -3712,7 +3720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="31.25" hidden="1">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -3792,7 +3800,7 @@
       <c r="AC4" s="13"/>
       <c r="AD4" s="15"/>
     </row>
-    <row r="5" spans="1:30" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="19" customFormat="1" ht="31.25">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -3874,7 +3882,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="19" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="19" customFormat="1" ht="62.5">
       <c r="A6" s="32">
         <v>3</v>
       </c>
@@ -3955,7 +3963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="31.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="31.25">
       <c r="A8" s="32">
         <v>5</v>
       </c>
@@ -4119,7 +4127,7 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="15"/>
     </row>
-    <row r="9" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="31.25" hidden="1">
       <c r="A9" s="32">
         <v>6</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="31.25" hidden="1">
       <c r="A10" s="32">
         <v>7</v>
       </c>
@@ -4283,7 +4291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="31.25" hidden="1">
       <c r="A11" s="32">
         <v>8</v>
       </c>
@@ -4367,7 +4375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="31.25" hidden="1">
       <c r="A12" s="32">
         <v>9</v>
       </c>
@@ -4453,7 +4461,7 @@
       </c>
       <c r="AD12" s="15"/>
     </row>
-    <row r="13" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="31.25" hidden="1">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="31.25" hidden="1">
       <c r="A14" s="32">
         <v>11</v>
       </c>
@@ -4617,7 +4625,7 @@
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
     </row>
-    <row r="15" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="31.25" hidden="1">
       <c r="A15" s="32">
         <v>12</v>
       </c>
@@ -4703,7 +4711,7 @@
       <c r="AC15" s="48"/>
       <c r="AD15" s="15"/>
     </row>
-    <row r="16" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="31.25" hidden="1">
       <c r="A16" s="32">
         <v>13</v>
       </c>
@@ -4789,7 +4797,7 @@
       <c r="AC16" s="48"/>
       <c r="AD16" s="15"/>
     </row>
-    <row r="17" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="31.25" hidden="1">
       <c r="A17" s="32">
         <v>14</v>
       </c>
@@ -4883,7 +4891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="31.25" hidden="1">
       <c r="A18" s="32">
         <v>15</v>
       </c>
@@ -4977,7 +4985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" ht="31.25" hidden="1">
       <c r="A19" s="32">
         <v>16</v>
       </c>
@@ -5063,7 +5071,7 @@
       <c r="AC19" s="58"/>
       <c r="AD19" s="58"/>
     </row>
-    <row r="20" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="31.25" hidden="1">
       <c r="A20" s="32">
         <v>17</v>
       </c>
@@ -5153,7 +5161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="31.25" hidden="1">
       <c r="A21" s="32">
         <v>18</v>
       </c>
@@ -5235,7 +5243,7 @@
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
     </row>
-    <row r="22" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" ht="31.25" hidden="1">
       <c r="A22" s="32"/>
       <c r="B22" s="65"/>
       <c r="C22" s="13" t="s">
@@ -5291,7 +5299,7 @@
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
     </row>
-    <row r="23" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="31.25" hidden="1">
       <c r="A23" s="32"/>
       <c r="B23" s="65"/>
       <c r="C23" s="13" t="s">
@@ -5347,7 +5355,7 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
     </row>
-    <row r="24" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="31.25" hidden="1">
       <c r="A24" s="32"/>
       <c r="B24" s="65"/>
       <c r="C24" s="13" t="s">
@@ -5403,7 +5411,7 @@
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
     </row>
-    <row r="25" spans="1:30" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="31.25" hidden="1">
       <c r="A25" s="32"/>
       <c r="B25" s="65"/>
       <c r="C25" s="13" t="s">
@@ -5459,7 +5467,7 @@
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" hidden="1">
       <c r="A26" s="32"/>
       <c r="B26" s="65"/>
       <c r="C26" s="13"/>
@@ -5509,7 +5517,7 @@
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" hidden="1">
       <c r="A27" s="32"/>
       <c r="B27" s="65"/>
       <c r="C27" s="13"/>
@@ -5559,7 +5567,7 @@
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" hidden="1">
       <c r="A28" s="32"/>
       <c r="B28" s="65"/>
       <c r="C28" s="13"/>
@@ -5609,7 +5617,7 @@
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" hidden="1">
       <c r="A29" s="32"/>
       <c r="B29" s="65"/>
       <c r="C29" s="13"/>
@@ -5659,7 +5667,7 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" hidden="1">
       <c r="A30" s="33"/>
       <c r="B30" s="65"/>
       <c r="C30" s="13"/>
@@ -5709,7 +5717,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
     </row>
-    <row r="31" spans="1:30" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" s="51" customFormat="1" hidden="1">
       <c r="A31" s="33"/>
       <c r="B31" s="68"/>
       <c r="C31" s="43"/>
@@ -5759,7 +5767,7 @@
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" hidden="1">
       <c r="A32" s="33"/>
       <c r="B32" s="68"/>
       <c r="C32" s="43"/>
@@ -5809,7 +5817,7 @@
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" hidden="1">
       <c r="A33" s="33"/>
       <c r="B33" s="68"/>
       <c r="C33" s="43"/>
@@ -5907,19 +5915,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" style="12"/>
-    <col min="3" max="3" width="16.796875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.296875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="3" max="3" width="16.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.796875" style="12"/>
+    <col min="7" max="7" width="13.6640625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="48" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -5961,7 +5969,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="22" t="s">
         <v>41</v>
       </c>
@@ -5984,7 +5992,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -6009,7 +6017,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="78">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>56</v>
@@ -6032,7 +6040,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -6057,7 +6065,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
@@ -6082,7 +6090,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6097,7 +6105,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6112,7 +6120,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6127,7 +6135,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6142,7 +6150,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6157,7 +6165,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6172,7 +6180,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6187,7 +6195,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6202,7 +6210,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="3"/>
@@ -6236,7 +6244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Synthèse-Experiences/ExperimentsMAJmardisoir.xlsx
+++ b/Synthèse-Experiences/ExperimentsMAJmardisoir.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/Users/clemencebriosnefrejaville/Desktop/GitHubAustralie/Synthèse-Experiences/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="23260" windowHeight="13160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Resultats" sheetId="1" r:id="rId1"/>
     <sheet name="Interpretations" sheetId="2" r:id="rId2"/>
     <sheet name="Resolution" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="104">
   <si>
     <t>Colonne7</t>
   </si>
@@ -42,9 +47,6 @@
   </si>
   <si>
     <t>Current (pA)</t>
-  </si>
-  <si>
-    <t>Area/Line step size</t>
   </si>
   <si>
     <t>Results</t>
@@ -414,13 +416,45 @@
       <t>C</t>
     </r>
   </si>
+  <si>
+    <t>10µm – 1pA (5)</t>
+  </si>
+  <si>
+    <t>Area/Line step size (𝝁m)</t>
+  </si>
+  <si>
+    <t>high step dose</t>
+  </si>
+  <si>
+    <t>Position U</t>
+  </si>
+  <si>
+    <t>Position V</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Probleme de design: 1 2 6 1 1 1</t>
+  </si>
+  <si>
+    <t>1 point à travers tout df =100</t>
+  </si>
+  <si>
+    <t>dose3to6</t>
+  </si>
+  <si>
+    <t>dose1to2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm;@"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -727,7 +761,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -947,6 +981,38 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -968,63 +1034,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <font>
         <b val="0"/>
@@ -1041,6 +1051,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1048,15 +1059,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1075,14 +1090,15 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
@@ -1092,9 +1108,9 @@
         <top style="thin">
           <color rgb="FFBBBBAD"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1154,20 +1170,72 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
         <right style="thin">
           <color rgb="FFBBBBAD"/>
         </right>
-        <top style="thin">
-          <color rgb="FFBBBBAD"/>
-        </top>
+        <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1222,11 +1290,11 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
@@ -1236,9 +1304,9 @@
         <top style="thin">
           <color rgb="FFBBBBAD"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1294,11 +1362,11 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
@@ -1308,9 +1376,9 @@
         <top style="thin">
           <color rgb="FFBBBBAD"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1363,15 +1431,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="9"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFBBBBAD"/>
         </left>
@@ -1381,9 +1448,9 @@
         <top style="thin">
           <color rgb="FFBBBBAD"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FFBBBBAD"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2199,6 +2266,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2227,6 +2300,145 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFBBBBAD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFBBBBAD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFBBBBAD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFBBBBAD"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -3108,83 +3320,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:AD33" dataDxfId="75">
-  <autoFilter ref="A3:AD33">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="10μm – 1pA (6)"/>
-        <filter val="10µm – 1pA (6)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:AF39" dataDxfId="79">
+  <autoFilter ref="A3:AF39">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <dateGroupItem year="2016" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A4:AD33">
-    <sortCondition ref="B3:B33"/>
+  <sortState ref="A4:AF33">
+    <sortCondition ref="D3:D33"/>
   </sortState>
-  <tableColumns count="30">
-    <tableColumn id="27" name="# Exp" totalsRowLabel="Total" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="1" name="Date" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" name="Sample" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="3" name="Coating" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="4" name="Coating thickness" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="5" name="Design" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="6" name="Design dose factor" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="7" name="Beam" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="8" name="Loop factor" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="9" name="Current (pA)" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="10" name="Dot         pC" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="11" name="Line μC/cm" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="12" name="Area μC/cm^2" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="13" name="Area/Line step size" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="14" name="Min Dot DF" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="15" name="Total11 charge pC" dataDxfId="44" totalsRowDxfId="43">
+  <tableColumns count="32">
+    <tableColumn id="27" name="# Exp" totalsRowLabel="Total" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="32" name="Position U" dataDxfId="0" totalsRowDxfId="2"/>
+    <tableColumn id="31" name="Position V" dataDxfId="1" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="Date" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="2" name="Sample" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="3" name="Coating" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="4" name="Coating thickness" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="5" name="Design" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="6" name="Design dose factor" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="7" name="Beam" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="8" name="Loop factor" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="9" name="Current (pA)" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="10" name="Dot         pC" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="11" name="Line μC/cm" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="12" name="Area μC/cm^2" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="13" name="Area/Line step size (𝝁m)" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="14" name="Min Dot DF" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="15" name="Total11 charge pC" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Max Dot DF" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="17" name="Total12 charge pC" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="16" name="Max Dot DF" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="17" name="Total12 charge pC" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Min Line DF" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="19" name="Total21 charge µC" dataDxfId="36" totalsRowDxfId="35">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</calculatedColumnFormula>
+    <tableColumn id="18" name="Min Line DF" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="19" name="Total21 charge µC" dataDxfId="40" totalsRowDxfId="39">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Max Line DF" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="21" name="Total22 charge µC" dataDxfId="32" totalsRowDxfId="31">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</calculatedColumnFormula>
+    <tableColumn id="20" name="Max Line DF" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="21" name="Total22 charge µC" dataDxfId="36" totalsRowDxfId="35">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Min Area DF" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="23" name="Total31 charge μC" dataDxfId="28" totalsRowDxfId="27">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</calculatedColumnFormula>
+    <tableColumn id="22" name="Min Area DF" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="23" name="Total31 charge μC" dataDxfId="32" totalsRowDxfId="31">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Max Area DF" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="25" name="Totale charge32 μC" dataDxfId="24" totalsRowDxfId="23">
-      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</calculatedColumnFormula>
+    <tableColumn id="24" name="Max Area DF" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="25" name="Totale charge32 μC" dataDxfId="28" totalsRowDxfId="27">
+      <calculatedColumnFormula>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Total hole size" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="28" name="Step between dots" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="29" name="Charge" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="30" name="Results" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="26" name="Total hole size" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="28" name="Step between dots" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="29" name="Charge" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="30" name="Results" totalsRowFunction="count" dataDxfId="20" totalsRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:M15"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Beam" dataDxfId="12"/>
-    <tableColumn id="14" name="Design" dataDxfId="11"/>
-    <tableColumn id="2" name="loops" dataDxfId="10"/>
-    <tableColumn id="3" name="min charge for dot piercing (pC)" dataDxfId="9"/>
-    <tableColumn id="4" name="min charge for line piercing (μC)" dataDxfId="8"/>
-    <tableColumn id="5" name="min charge for area piercing (μC)" dataDxfId="7"/>
-    <tableColumn id="6" name="Comments" dataDxfId="6"/>
-    <tableColumn id="7" name="Colonne7" dataDxfId="5"/>
-    <tableColumn id="8" name="Colonne8" dataDxfId="4"/>
-    <tableColumn id="9" name="Colonne9" dataDxfId="3"/>
-    <tableColumn id="10" name="Colonne10" dataDxfId="2"/>
-    <tableColumn id="11" name="Colonne11" dataDxfId="1"/>
-    <tableColumn id="12" name="Colonne12" dataDxfId="0"/>
+    <tableColumn id="1" name="Beam" dataDxfId="16"/>
+    <tableColumn id="14" name="Design" dataDxfId="15"/>
+    <tableColumn id="2" name="loops" dataDxfId="14"/>
+    <tableColumn id="3" name="min charge for dot piercing (pC)" dataDxfId="13"/>
+    <tableColumn id="4" name="min charge for line piercing (μC)" dataDxfId="12"/>
+    <tableColumn id="5" name="min charge for area piercing (μC)" dataDxfId="11"/>
+    <tableColumn id="6" name="Comments" dataDxfId="10"/>
+    <tableColumn id="7" name="Colonne7" dataDxfId="9"/>
+    <tableColumn id="8" name="Colonne8" dataDxfId="8"/>
+    <tableColumn id="9" name="Colonne9" dataDxfId="7"/>
+    <tableColumn id="10" name="Colonne10" dataDxfId="6"/>
+    <tableColumn id="11" name="Colonne11" dataDxfId="5"/>
+    <tableColumn id="12" name="Colonne12" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3512,397 +3725,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W7" sqref="Q6:W7"/>
+      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="84" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="41" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="11.83203125" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
     <col min="19" max="19" width="11.83203125" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.83203125" customWidth="1"/>
     <col min="22" max="22" width="13.1640625" customWidth="1"/>
-    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" customWidth="1"/>
     <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" customWidth="1"/>
-    <col min="28" max="28" width="17.33203125" customWidth="1"/>
-    <col min="29" max="29" width="15.1640625" customWidth="1"/>
-    <col min="30" max="30" width="20.5" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" customWidth="1"/>
+    <col min="29" max="29" width="14.1640625" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="15.1640625" customWidth="1"/>
+    <col min="32" max="32" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="24" customHeight="1">
-      <c r="H1" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="69" t="s">
+    <row r="1" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="69"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AD1" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="49"/>
+    </row>
+    <row r="2" spans="1:32" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="60"/>
+      <c r="M2" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="75"/>
+      <c r="U2" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+    </row>
+    <row r="3" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AB1" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="49"/>
-    </row>
-    <row r="2" spans="1:30" ht="26" customHeight="1">
-      <c r="F2" s="60"/>
-      <c r="K2" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-    </row>
-    <row r="3" spans="1:30" ht="63" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="P3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="Y3" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB3" s="47" t="s">
+      <c r="AA3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC3" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>8</v>
+      <c r="AD3" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="31.25" hidden="1">
+    <row r="4" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="86"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="63">
         <v>42545</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="G4" s="14">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="14">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="14">
+      <c r="K4" s="14">
         <v>20</v>
       </c>
-      <c r="J4" s="14">
+      <c r="L4" s="14">
         <v>6.8120000000000003</v>
       </c>
-      <c r="K4" s="13">
+      <c r="M4" s="13">
         <v>0.10044</v>
       </c>
-      <c r="L4" s="14">
+      <c r="N4" s="14">
         <v>1000</v>
       </c>
-      <c r="M4" s="39">
+      <c r="O4" s="39">
         <v>1000</v>
       </c>
-      <c r="N4" s="14">
+      <c r="P4" s="14">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O4" s="13">
+      <c r="Q4" s="13">
         <v>1.2</v>
       </c>
-      <c r="P4" s="24">
+      <c r="R4" s="24">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.4105599999999998</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="S4" s="13">
         <v>1.4</v>
       </c>
-      <c r="R4" s="24">
+      <c r="T4" s="24">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>2.8123199999999997</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
-        <v>0</v>
-      </c>
       <c r="U4" s="13"/>
-      <c r="V4" s="16"/>
+      <c r="V4" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
       <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13">
+      <c r="X4" s="16"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13">
         <v>10</v>
       </c>
-      <c r="Z4" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+      <c r="AB4" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>640</v>
       </c>
-      <c r="AA4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="15"/>
+      <c r="AC4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="15"/>
     </row>
-    <row r="5" spans="1:30" s="19" customFormat="1" ht="31.25">
+    <row r="5" spans="1:32" s="19" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>2</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="87"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="64">
         <v>42548</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="E5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="G5" s="17">
         <v>5</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1</v>
-      </c>
       <c r="H5" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K5" s="17">
+      <c r="M5" s="17">
         <v>2.0087999999999999</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="40">
+      <c r="N5" s="17"/>
+      <c r="O5" s="40">
         <v>20000</v>
       </c>
-      <c r="N5" s="17">
+      <c r="P5" s="17">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O5" s="23">
+      <c r="Q5" s="23">
         <v>2.4</v>
       </c>
-      <c r="P5" s="17">
+      <c r="R5" s="17">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>4.8211199999999996</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
-        <v>0</v>
-      </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U5" s="17"/>
       <c r="V5" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17">
         <v>10</v>
       </c>
-      <c r="X5" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+      <c r="Z5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>640</v>
       </c>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC5" s="18"/>
-      <c r="AD5" s="18" t="s">
-        <v>45</v>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="19" customFormat="1" ht="62.5">
+    <row r="6" spans="1:32" s="19" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
         <v>3</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="88"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="65">
         <v>42549</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="G6" s="13">
         <v>5</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>28</v>
@@ -3910,1979 +4130,2870 @@
       <c r="I6" s="13">
         <v>1</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
         <v>0.77100000000000002</v>
       </c>
-      <c r="K6" s="13">
+      <c r="M6" s="13">
         <v>2.0087999999999999</v>
       </c>
-      <c r="L6" s="13">
+      <c r="N6" s="13">
         <v>20000</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="13">
+      <c r="O6" s="39"/>
+      <c r="P6" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O6" s="59">
+      <c r="Q6" s="59">
         <v>1.6</v>
       </c>
-      <c r="P6" s="59">
+      <c r="R6" s="59">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>3.21408</v>
       </c>
-      <c r="Q6" s="59">
+      <c r="S6" s="59">
         <v>1.8</v>
       </c>
-      <c r="R6" s="59">
+      <c r="T6" s="59">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>3.6158399999999999</v>
       </c>
-      <c r="S6" s="13">
+      <c r="U6" s="13">
         <v>1.8</v>
       </c>
-      <c r="T6" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V6" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>115.2</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
       <c r="W6" s="13"/>
-      <c r="X6" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
-      </c>
+      <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC6" s="15"/>
-      <c r="AD6" s="15" t="s">
-        <v>48</v>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="31.25">
+    <row r="7" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <v>4</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="87"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="64">
         <v>42549</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="E7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="G7" s="17">
         <v>5</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="H7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="J7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="17">
         <v>20</v>
       </c>
-      <c r="J7" s="17">
+      <c r="L7" s="17">
         <v>0.26</v>
       </c>
-      <c r="K7" s="17">
+      <c r="M7" s="17">
         <v>0.10044</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="40">
+      <c r="N7" s="17"/>
+      <c r="O7" s="40">
         <v>1000</v>
       </c>
-      <c r="N7" s="17">
+      <c r="P7" s="17">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O7" s="17">
+      <c r="Q7" s="17">
         <v>2.4</v>
       </c>
-      <c r="P7" s="17">
+      <c r="R7" s="17">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>4.8211199999999996</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
-        <v>0</v>
-      </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U7" s="17"/>
       <c r="V7" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W7" s="17"/>
       <c r="X7" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="17">
         <v>10</v>
       </c>
-      <c r="Z7" s="17">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+      <c r="AB7" s="17">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>640</v>
       </c>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-      <c r="AD7" s="18" t="s">
-        <v>33</v>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="31.25">
+    <row r="8" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <v>5</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="88"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="65">
         <v>42549</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="G8" s="13">
         <v>5</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
       <c r="H8" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="13">
         <v>1</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
         <v>0.878</v>
       </c>
-      <c r="K8" s="13">
+      <c r="M8" s="13">
         <v>2.0087999999999999</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="39">
+      <c r="N8" s="13"/>
+      <c r="O8" s="39">
         <v>20000</v>
       </c>
-      <c r="N8" s="13">
+      <c r="P8" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O8" s="25">
+      <c r="Q8" s="25">
         <v>2.4</v>
       </c>
-      <c r="P8" s="24">
+      <c r="R8" s="24">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>4.8211199999999996</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="13">
+      <c r="S8" s="15"/>
+      <c r="T8" s="13">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W8" s="13"/>
       <c r="X8" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="24">
         <v>10</v>
       </c>
-      <c r="Z8" s="24">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+      <c r="AB8" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>640</v>
       </c>
-      <c r="AA8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="15"/>
+      <c r="AC8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:30" ht="31.25" hidden="1">
+    <row r="9" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
         <v>6</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="88"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="65">
         <v>42551</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="G9" s="13">
         <v>5</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="J9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="13">
         <v>20</v>
       </c>
-      <c r="J9" s="13">
+      <c r="L9" s="13">
         <v>6.75</v>
       </c>
-      <c r="K9" s="13">
+      <c r="M9" s="13">
         <v>0.10044</v>
       </c>
-      <c r="L9" s="13">
+      <c r="N9" s="13">
         <v>1000</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="13">
+      <c r="O9" s="39"/>
+      <c r="P9" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53">
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="53">
+      <c r="S9" s="53">
         <v>1</v>
       </c>
-      <c r="R9" s="53">
+      <c r="T9" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>2.0087999999999999</v>
       </c>
-      <c r="S9" s="13">
+      <c r="U9" s="13">
         <v>1.8</v>
       </c>
-      <c r="T9" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V9" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>115.2</v>
-      </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
-        <v>0</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC9" s="15"/>
-      <c r="AD9" s="15" t="s">
-        <v>37</v>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="31.25" hidden="1">
+    <row r="10" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
         <v>7</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="88"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="65">
         <v>42551</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="E10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="G10" s="13">
         <v>5</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="H10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="13">
         <v>1</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="J10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="13">
         <v>20</v>
       </c>
-      <c r="J10" s="13">
+      <c r="L10" s="13">
         <v>6.97</v>
       </c>
-      <c r="K10" s="13">
+      <c r="M10" s="13">
         <v>0.8</v>
       </c>
-      <c r="L10" s="13">
+      <c r="N10" s="13">
         <v>3000</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="13">
+      <c r="O10" s="39"/>
+      <c r="P10" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53">
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="53">
+      <c r="S10" s="53">
         <v>1</v>
       </c>
-      <c r="R10" s="53">
+      <c r="T10" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>16</v>
       </c>
-      <c r="S10" s="13">
+      <c r="U10" s="13">
         <v>1.8</v>
       </c>
-      <c r="T10" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V10" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>345.6</v>
-      </c>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
-        <v>0</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC10" s="15"/>
-      <c r="AD10" s="15" t="s">
-        <v>37</v>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="31.25" hidden="1">
+    <row r="11" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
         <v>8</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="88"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="65">
         <v>42551</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="G11" s="13">
         <v>5</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="H11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="J11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="13">
         <v>20</v>
       </c>
-      <c r="J11" s="13">
+      <c r="L11" s="13">
         <v>6.83</v>
       </c>
-      <c r="K11" s="13">
+      <c r="M11" s="13">
         <v>0.1</v>
       </c>
-      <c r="L11" s="13">
+      <c r="N11" s="13">
         <v>1000</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="13">
+      <c r="O11" s="39"/>
+      <c r="P11" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O11" s="53">
+      <c r="Q11" s="53">
         <v>0.6</v>
       </c>
-      <c r="P11" s="53">
+      <c r="R11" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>1.2</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="S11" s="53">
         <v>0.8</v>
       </c>
-      <c r="R11" s="53">
+      <c r="T11" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>1.6</v>
       </c>
-      <c r="S11" s="13">
+      <c r="U11" s="13">
         <v>6</v>
       </c>
-      <c r="T11" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V11" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>384</v>
-      </c>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
-        <v>0</v>
       </c>
       <c r="W11" s="13"/>
       <c r="X11" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC11" s="15"/>
-      <c r="AD11" s="15" t="s">
-        <v>39</v>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="31.25" hidden="1">
+    <row r="12" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
         <v>9</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="88"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="65">
         <v>42551</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="G12" s="13">
         <v>5</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="H12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="J12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="13">
         <v>20</v>
       </c>
-      <c r="J12" s="13">
+      <c r="L12" s="13">
         <v>6.9779999999999998</v>
       </c>
-      <c r="K12" s="13">
+      <c r="M12" s="13">
         <v>0.1</v>
       </c>
-      <c r="L12" s="13">
+      <c r="N12" s="13">
         <v>1000</v>
       </c>
-      <c r="M12" s="39">
+      <c r="O12" s="39">
         <v>1000</v>
       </c>
-      <c r="N12" s="13">
+      <c r="P12" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O12" s="13">
+      <c r="Q12" s="13">
         <v>1.4</v>
       </c>
-      <c r="P12" s="13">
+      <c r="R12" s="13">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.8</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
-        <v>0</v>
-      </c>
       <c r="S12" s="13"/>
       <c r="T12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="48" t="s">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD12" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="AB12" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC12" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD12" s="15"/>
+      <c r="AE12" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:30" ht="31.25" hidden="1">
+    <row r="13" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>10</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="87"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="66">
         <v>42551</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="E13" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="42">
+      <c r="G13" s="42">
         <v>5</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="42">
+      <c r="H13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="42">
         <v>1</v>
       </c>
-      <c r="H13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="42">
+      <c r="J13" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="42">
         <v>20</v>
       </c>
-      <c r="J13" s="42">
+      <c r="L13" s="42">
         <v>6.8319999999999999</v>
       </c>
-      <c r="K13" s="42">
+      <c r="M13" s="42">
         <v>0.1</v>
       </c>
-      <c r="L13" s="42">
+      <c r="N13" s="42">
         <v>5000</v>
       </c>
-      <c r="M13" s="44">
+      <c r="O13" s="44">
         <v>1000</v>
       </c>
-      <c r="N13" s="36">
+      <c r="P13" s="36">
         <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="46">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
       </c>
       <c r="Q13" s="42"/>
       <c r="R13" s="46">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S13" s="42"/>
       <c r="T13" s="46">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U13" s="42"/>
       <c r="V13" s="46">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W13" s="42"/>
       <c r="X13" s="46">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y13" s="42"/>
       <c r="Z13" s="46">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
+      <c r="AB13" s="46">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC13" s="42"/>
-      <c r="AD13" s="42" t="s">
-        <v>64</v>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="31.25" hidden="1">
+    <row r="14" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <v>11</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="88"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="65">
         <v>42551</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="G14" s="13">
         <v>5</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="H14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="J14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="13">
         <v>20</v>
       </c>
-      <c r="J14" s="13">
+      <c r="L14" s="13">
         <v>6.8460000000000001</v>
       </c>
-      <c r="K14" s="13">
+      <c r="M14" s="13">
         <v>0.08</v>
       </c>
-      <c r="L14" s="13">
+      <c r="N14" s="13">
         <v>7000</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="13">
+      <c r="O14" s="39"/>
+      <c r="P14" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O14" s="53">
+      <c r="Q14" s="53">
         <v>1</v>
       </c>
-      <c r="P14" s="53">
+      <c r="R14" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>1.6</v>
       </c>
-      <c r="Q14" s="53">
+      <c r="S14" s="53">
         <v>2</v>
       </c>
-      <c r="R14" s="53">
+      <c r="T14" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>3.2</v>
       </c>
-      <c r="S14" s="13">
+      <c r="U14" s="13">
         <v>3</v>
       </c>
-      <c r="T14" s="27">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V14" s="27">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>1344</v>
       </c>
-      <c r="U14" s="13">
+      <c r="W14" s="13">
         <v>4</v>
       </c>
-      <c r="V14" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+      <c r="X14" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>1792</v>
-      </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
       </c>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
     </row>
-    <row r="15" spans="1:30" ht="31.25" hidden="1">
+    <row r="15" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
         <v>12</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="88"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="65">
         <v>42551</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="E15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="G15" s="13">
         <v>5</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="H15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="13">
         <v>1</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="J15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="13">
         <v>20</v>
       </c>
-      <c r="J15" s="13">
+      <c r="L15" s="13">
         <v>6.9530000000000003</v>
       </c>
-      <c r="K15" s="13">
+      <c r="M15" s="13">
         <v>0.08</v>
       </c>
-      <c r="L15" s="13">
+      <c r="N15" s="13">
         <v>7000</v>
       </c>
-      <c r="M15" s="39">
+      <c r="O15" s="39">
         <v>1000</v>
       </c>
-      <c r="N15" s="13">
+      <c r="P15" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O15" s="16">
+      <c r="Q15" s="16">
         <v>1.4</v>
       </c>
-      <c r="P15" s="24">
+      <c r="R15" s="24">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.2399999999999998</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16">
+      <c r="S15" s="16"/>
+      <c r="T15" s="16">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S15" s="13">
+      <c r="U15" s="13">
         <v>2.4</v>
       </c>
-      <c r="T15" s="24">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V15" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>1075.2</v>
-      </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
-        <v>0</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="48">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="48">
         <v>60</v>
       </c>
-      <c r="AB15" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="15"/>
+      <c r="AD15" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="15"/>
     </row>
-    <row r="16" spans="1:30" ht="31.25" hidden="1">
+    <row r="16" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
         <v>13</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="88"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="65">
         <v>42551</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="E16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="G16" s="13">
         <v>5</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="H16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="J16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="13">
         <v>20</v>
       </c>
-      <c r="J16" s="13">
+      <c r="L16" s="13">
         <v>6.992</v>
       </c>
-      <c r="K16" s="13">
+      <c r="M16" s="13">
         <v>0.08</v>
       </c>
-      <c r="L16" s="13">
+      <c r="N16" s="13">
         <v>35000</v>
       </c>
-      <c r="M16" s="39">
+      <c r="O16" s="39">
         <v>1000</v>
       </c>
-      <c r="N16" s="13">
+      <c r="P16" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O16" s="16">
+      <c r="Q16" s="16">
         <v>1.4</v>
       </c>
-      <c r="P16" s="24">
+      <c r="R16" s="24">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.2399999999999998</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16">
+      <c r="S16" s="16"/>
+      <c r="T16" s="16">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="13">
+      <c r="U16" s="13"/>
+      <c r="V16" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="13">
         <v>0.6</v>
       </c>
-      <c r="V16" s="27">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+      <c r="X16" s="27">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>1344</v>
-      </c>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
       </c>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="48">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="48">
         <v>73</v>
       </c>
-      <c r="AB16" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="15"/>
+      <c r="AD16" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="15"/>
     </row>
-    <row r="17" spans="1:30" ht="31.25" hidden="1">
+    <row r="17" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
         <v>14</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="88"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="65">
         <v>42551</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="G17" s="13">
         <v>5</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="H17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="13">
         <v>1</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="13">
         <v>20</v>
       </c>
-      <c r="J17" s="13">
+      <c r="L17" s="13">
         <v>6.992</v>
       </c>
-      <c r="K17" s="13">
+      <c r="M17" s="13">
         <v>0.1</v>
       </c>
-      <c r="L17" s="13">
+      <c r="N17" s="13">
         <v>20000</v>
       </c>
-      <c r="M17" s="39">
+      <c r="O17" s="39">
         <v>1000</v>
       </c>
-      <c r="N17" s="13">
+      <c r="P17" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O17" s="16">
+      <c r="Q17" s="16">
         <v>1</v>
       </c>
-      <c r="P17" s="16">
+      <c r="R17" s="16">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="S17" s="16">
         <v>1.2</v>
       </c>
-      <c r="R17" s="24">
+      <c r="T17" s="24">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>2.4</v>
       </c>
-      <c r="S17" s="13">
+      <c r="U17" s="13">
         <v>0.6</v>
       </c>
-      <c r="T17" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V17" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>768</v>
       </c>
-      <c r="U17" s="13">
+      <c r="W17" s="13">
         <v>0.8</v>
       </c>
-      <c r="V17" s="24">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+      <c r="X17" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>1024</v>
-      </c>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
       </c>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="52">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="52">
         <v>49</v>
       </c>
-      <c r="AB17" s="52" t="s">
+      <c r="AD17" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE17" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="AC17" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD17" s="52" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="18" spans="1:30" ht="31.25" hidden="1">
+    <row r="18" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <v>15</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="88"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="65">
         <v>42551</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="G18" s="13">
         <v>5</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="H18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="J18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="13">
         <v>200</v>
       </c>
-      <c r="J18" s="13">
+      <c r="L18" s="13">
         <v>6.99</v>
       </c>
-      <c r="K18" s="13">
+      <c r="M18" s="13">
         <v>0.01</v>
       </c>
-      <c r="L18" s="13">
+      <c r="N18" s="13">
         <v>1800</v>
       </c>
-      <c r="M18" s="39">
+      <c r="O18" s="39">
         <v>100</v>
       </c>
-      <c r="N18" s="13">
+      <c r="P18" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O18" s="13">
+      <c r="Q18" s="13">
         <v>1.2</v>
       </c>
-      <c r="P18" s="24">
+      <c r="R18" s="24">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>2.4</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="S18" s="13">
         <v>1.4</v>
       </c>
-      <c r="R18" s="24">
+      <c r="T18" s="24">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>2.8</v>
       </c>
-      <c r="S18" s="13">
+      <c r="U18" s="13">
         <v>0.8</v>
       </c>
-      <c r="T18" s="24">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V18" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>921.6</v>
       </c>
-      <c r="U18" s="13">
+      <c r="W18" s="13">
         <v>1</v>
       </c>
-      <c r="V18" s="24">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+      <c r="X18" s="24">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>1152</v>
-      </c>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
       </c>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="52">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="52">
         <v>46</v>
       </c>
-      <c r="AB18" s="52" t="s">
+      <c r="AD18" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE18" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="AC18" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD18" s="52" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="19" spans="1:30" ht="31.25" hidden="1">
+    <row r="19" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <v>16</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="88"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="67">
         <v>42551</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="E19" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="50">
+      <c r="G19" s="50">
         <v>5</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="50">
+      <c r="H19" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="50">
         <v>1</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="50">
+      <c r="J19" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="50">
         <v>200</v>
       </c>
-      <c r="J19" s="50">
+      <c r="L19" s="50">
         <v>6.99</v>
       </c>
-      <c r="K19" s="50">
+      <c r="M19" s="50">
         <v>0.01</v>
       </c>
-      <c r="L19" s="50">
+      <c r="N19" s="50">
         <v>1800</v>
       </c>
-      <c r="M19" s="54">
+      <c r="O19" s="54">
         <v>100</v>
       </c>
-      <c r="N19" s="50">
+      <c r="P19" s="50">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O19" s="53">
+      <c r="Q19" s="53">
         <v>0.6</v>
       </c>
-      <c r="P19" s="53">
+      <c r="R19" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>1.2</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="S19" s="53">
         <v>0.8</v>
       </c>
-      <c r="R19" s="53">
+      <c r="T19" s="53">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>1.6</v>
       </c>
-      <c r="S19" s="50">
+      <c r="U19" s="50">
         <v>1</v>
       </c>
-      <c r="T19" s="50">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+      <c r="V19" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>1152</v>
       </c>
-      <c r="U19" s="50">
+      <c r="W19" s="50">
         <v>2</v>
       </c>
-      <c r="V19" s="50">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+      <c r="X19" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>2304</v>
-      </c>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
-        <v>0</v>
       </c>
       <c r="Y19" s="50"/>
       <c r="Z19" s="50">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC19" s="58"/>
       <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
     </row>
-    <row r="20" spans="1:30" ht="31.25" hidden="1">
+    <row r="20" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <v>17</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="88"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="63">
         <v>42551</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="E20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="G20" s="14">
         <v>5</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
       <c r="H20" s="14" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I20" s="14">
         <v>1</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="14">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14">
         <v>7.0270000000000001</v>
       </c>
-      <c r="K20" s="15">
+      <c r="M20" s="15">
         <v>2.0087999999999999</v>
       </c>
-      <c r="L20" s="15">
+      <c r="N20" s="15">
         <v>20000</v>
       </c>
-      <c r="M20" s="55">
+      <c r="O20" s="55">
         <v>1000</v>
       </c>
-      <c r="N20" s="13">
+      <c r="P20" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O20" s="15">
+      <c r="Q20" s="15">
         <v>0.6</v>
       </c>
-      <c r="P20" s="35">
+      <c r="R20" s="35">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>1.2052799999999999</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="S20" s="15">
         <v>0.8</v>
       </c>
-      <c r="R20" s="35">
+      <c r="T20" s="35">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>1.60704</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="35">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
-        <v>0</v>
-      </c>
       <c r="U20" s="15"/>
       <c r="V20" s="35">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W20" s="15"/>
       <c r="X20" s="35">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y20" s="15"/>
       <c r="Z20" s="35">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="52">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="52">
         <v>42</v>
       </c>
-      <c r="AB20" s="52">
+      <c r="AD20" s="52">
         <v>80</v>
       </c>
-      <c r="AC20" s="52" t="s">
+      <c r="AE20" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="AD20" s="52" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="21" spans="1:30" ht="31.25" hidden="1">
+    <row r="21" spans="1:32" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32">
         <v>18</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="88"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="63">
         <v>42551</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="E21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="G21" s="14">
         <v>5</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
       <c r="H21" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I21" s="14">
         <v>1</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
         <v>7.1479999999999997</v>
       </c>
-      <c r="K21" s="15">
+      <c r="M21" s="15">
         <v>2.0087999999999999</v>
       </c>
-      <c r="L21" s="15">
+      <c r="N21" s="15">
         <v>20000</v>
       </c>
-      <c r="M21" s="55">
+      <c r="O21" s="55">
         <v>20000</v>
       </c>
-      <c r="N21" s="13">
+      <c r="P21" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="O21" s="56">
+      <c r="Q21" s="56">
         <v>0.3</v>
       </c>
-      <c r="P21" s="57">
+      <c r="R21" s="57">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0.60263999999999995</v>
       </c>
-      <c r="Q21" s="56">
+      <c r="S21" s="56">
         <v>0.4</v>
       </c>
-      <c r="R21" s="57">
+      <c r="T21" s="57">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0.80352000000000001</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="35">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
-        <v>0</v>
-      </c>
       <c r="U21" s="15"/>
       <c r="V21" s="35">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W21" s="15"/>
       <c r="X21" s="35">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y21" s="15"/>
       <c r="Z21" s="35">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
+      <c r="AB21" s="35">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
     </row>
-    <row r="22" spans="1:30" ht="31.25" hidden="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="13" t="s">
+    <row r="22" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>20</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="82">
+        <v>2.74</v>
+      </c>
+      <c r="D22" s="65">
+        <v>42558</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="G22" s="13">
         <v>5</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="H22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="M22" s="13">
+        <v>2</v>
+      </c>
+      <c r="N22" s="13">
+        <v>20000</v>
+      </c>
+      <c r="O22" s="39">
+        <v>2000</v>
+      </c>
       <c r="P22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q22" s="13"/>
       <c r="R22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U22" s="13"/>
       <c r="V22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" ht="31.25" hidden="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="13" t="s">
+    <row r="23" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="B23" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="82">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="D23" s="65">
+        <f>D22</f>
+        <v>42558</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="13">
         <v>5</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="M23" s="13">
+        <v>2</v>
+      </c>
+      <c r="N23" s="13">
+        <v>20000</v>
+      </c>
+      <c r="O23" s="39">
+        <v>2000</v>
+      </c>
       <c r="P23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
     </row>
-    <row r="24" spans="1:30" ht="31.25" hidden="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="13" t="s">
+    <row r="24" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="32">
+        <v>22</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="82">
+        <f>C23-0.001</f>
+        <v>2.738</v>
+      </c>
+      <c r="D24" s="65">
+        <f t="shared" ref="D24:D37" si="0">D23</f>
+        <v>42558</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="G24" s="13">
         <v>5</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="M24" s="13">
+        <v>4</v>
+      </c>
+      <c r="N24" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O24" s="39">
+        <v>2000</v>
+      </c>
       <c r="P24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S24" s="13"/>
       <c r="T24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U24" s="13"/>
       <c r="V24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
     </row>
-    <row r="25" spans="1:30" ht="31.25" hidden="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="13" t="s">
+    <row r="25" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
+        <v>23</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="82">
+        <f t="shared" ref="C25:C36" si="1">C24-0.001</f>
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="D25" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="G25" s="13">
         <v>5</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="13">
+        <v>200</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N25" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O25" s="39">
+        <v>2000</v>
+      </c>
       <c r="P25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S25" s="13"/>
       <c r="T25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U25" s="13"/>
       <c r="V25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W25" s="13"/>
       <c r="X25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
     </row>
-    <row r="26" spans="1:30" hidden="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+    <row r="26" spans="1:32" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>24</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="82">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="D26" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="13">
+        <v>5</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="13">
+        <v>200</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O26" s="39">
+        <v>2000</v>
+      </c>
       <c r="P26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S26" s="13"/>
       <c r="T26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U26" s="13"/>
       <c r="V26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W26" s="13"/>
       <c r="X26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
     </row>
-    <row r="27" spans="1:30" hidden="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
+    <row r="27" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
+        <v>25</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="D27" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="13">
+        <v>5</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="13">
+        <v>200</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N27" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O27" s="39">
+        <v>2000</v>
+      </c>
       <c r="P27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q27" s="13"/>
       <c r="R27" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>3</v>
+      </c>
+      <c r="T27" s="13">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U27" s="13"/>
       <c r="V27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W27" s="13"/>
       <c r="X27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
     </row>
-    <row r="28" spans="1:30" hidden="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
+    <row r="28" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="32">
+        <v>26</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7350000000000003</v>
+      </c>
+      <c r="D28" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="13">
+        <v>5</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="13">
+        <v>200</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="M28" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N28" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O28" s="39">
+        <v>2000</v>
+      </c>
       <c r="P28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q28" s="13"/>
       <c r="R28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S28" s="13"/>
       <c r="T28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U28" s="13"/>
       <c r="V28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W28" s="13"/>
       <c r="X28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
     </row>
-    <row r="29" spans="1:30" hidden="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
+    <row r="29" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>27</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7340000000000004</v>
+      </c>
+      <c r="D29" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="13">
+        <v>5</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="13">
+        <v>200</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N29" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O29" s="39">
+        <v>2000</v>
+      </c>
       <c r="P29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q29" s="13"/>
       <c r="R29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S29" s="13"/>
       <c r="T29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U29" s="13"/>
       <c r="V29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W29" s="13"/>
       <c r="X29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
     </row>
-    <row r="30" spans="1:30" hidden="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
+    <row r="30" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="33">
+        <v>28</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7330000000000005</v>
+      </c>
+      <c r="D30" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="13">
+        <v>5</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="13">
+        <v>20</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="13">
+        <v>20</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N30" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O30" s="39">
+        <v>2000</v>
+      </c>
       <c r="P30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q30" s="13"/>
       <c r="R30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S30" s="13"/>
       <c r="T30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U30" s="13"/>
       <c r="V30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W30" s="13"/>
       <c r="X30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
     </row>
-    <row r="31" spans="1:30" s="51" customFormat="1" hidden="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+    <row r="31" spans="1:32" s="51" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="33">
+        <v>29</v>
+      </c>
+      <c r="B31" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7320000000000007</v>
+      </c>
+      <c r="D31" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="13">
+        <v>5</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="13">
+        <v>200</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="43">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N31" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O31" s="39">
+        <v>2000</v>
+      </c>
+      <c r="P31" s="13">
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q31" s="43"/>
       <c r="R31" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S31" s="43"/>
       <c r="T31" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U31" s="43"/>
       <c r="V31" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W31" s="43"/>
       <c r="X31" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC31" s="28"/>
       <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
     </row>
-    <row r="32" spans="1:30" hidden="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+    <row r="32" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="33">
+        <v>30</v>
+      </c>
+      <c r="B32" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7310000000000008</v>
+      </c>
+      <c r="D32" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="13">
+        <v>5</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="13">
+        <v>10</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="13">
+        <v>20</v>
+      </c>
+      <c r="L32" s="43">
+        <v>0.59</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N32" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O32" s="39">
+        <v>2000</v>
+      </c>
+      <c r="P32" s="13">
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q32" s="43"/>
       <c r="R32" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S32" s="43"/>
       <c r="T32" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U32" s="43"/>
       <c r="V32" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W32" s="43"/>
       <c r="X32" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y32" s="43"/>
       <c r="Z32" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC32" s="28"/>
       <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
     </row>
-    <row r="33" spans="1:30" hidden="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
-        <v>0</v>
+    <row r="33" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7300000000000009</v>
+      </c>
+      <c r="D33" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="13">
+        <v>5</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="43">
+        <v>20</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" s="43">
+        <v>10</v>
+      </c>
+      <c r="L33" s="43">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N33" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O33" s="39">
+        <v>2000</v>
+      </c>
+      <c r="P33" s="13">
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q33" s="43"/>
       <c r="R33" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="S33" s="43"/>
       <c r="T33" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
       <c r="U33" s="43"/>
       <c r="V33" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Line DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
       <c r="W33" s="43"/>
       <c r="X33" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Min Area DF]]</f>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
       <c r="Y33" s="43"/>
       <c r="Z33" s="43">
-        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size]]*Table2[[#This Row],[Max Area DF]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
       <c r="AC33" s="28"/>
       <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+    </row>
+    <row r="34" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
+        <v>32</v>
+      </c>
+      <c r="B34" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="82">
+        <f t="shared" si="1"/>
+        <v>2.729000000000001</v>
+      </c>
+      <c r="D34" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="13">
+        <v>5</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="43">
+        <v>10</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="43">
+        <v>20</v>
+      </c>
+      <c r="L34" s="43">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N34" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O34" s="39">
+        <v>2000</v>
+      </c>
+      <c r="P34" s="13">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+    </row>
+    <row r="35" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>33</v>
+      </c>
+      <c r="B35" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7280000000000011</v>
+      </c>
+      <c r="D35" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="13">
+        <v>5</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="43">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="43">
+        <v>30</v>
+      </c>
+      <c r="L35" s="43">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N35" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O35" s="39">
+        <v>2000</v>
+      </c>
+      <c r="P35" s="13">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+    </row>
+    <row r="36" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="33">
+        <v>34</v>
+      </c>
+      <c r="B36" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="82">
+        <f t="shared" si="1"/>
+        <v>2.7270000000000012</v>
+      </c>
+      <c r="D36" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="13">
+        <v>5</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="43">
+        <v>4</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="43">
+        <v>50</v>
+      </c>
+      <c r="L36" s="43">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N36" s="13">
+        <v>30000</v>
+      </c>
+      <c r="O36" s="39">
+        <v>2000</v>
+      </c>
+      <c r="P36" s="13">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+    </row>
+    <row r="37" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
+        <v>35</v>
+      </c>
+      <c r="B37" s="89">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C37" s="83">
+        <v>2.72</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" si="0"/>
+        <v>42558</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="13">
+        <v>5</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="43">
+        <v>1</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="43">
+        <v>20</v>
+      </c>
+      <c r="L37" s="43">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N37" s="43">
+        <v>7000</v>
+      </c>
+      <c r="O37" s="45">
+        <v>1000</v>
+      </c>
+      <c r="P37" s="13">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43">
+        <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
-  <conditionalFormatting sqref="V4">
+  <conditionalFormatting sqref="X4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5899,11 +7010,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5915,7 +7021,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="12"/>
@@ -5927,27 +7033,27 @@
     <col min="8" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" customHeight="1">
+    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>0</v>
@@ -5969,20 +7075,20 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -5992,21 +7098,21 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -6017,20 +7123,20 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="78">
+    <row r="4" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3">
         <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6040,21 +7146,21 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <v>200</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6065,22 +7171,22 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -6090,7 +7196,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6105,7 +7211,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6120,7 +7226,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6135,7 +7241,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6150,7 +7256,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6165,7 +7271,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6180,7 +7286,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6195,7 +7301,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6210,7 +7316,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="3"/>
@@ -6230,11 +7336,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6244,13 +7345,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>